--- a/alarm_clock_firmware/gpio.xlsx
+++ b/alarm_clock_firmware/gpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\wifi_alarm_clock\alarm_clock_firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664C0068-252D-4C9B-992E-207F794E6BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029C0A6A-0E62-4E2E-9E46-844A698FAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{35CF039F-BA96-499E-BEB0-29C9EB24C155}"/>
   </bookViews>
@@ -1081,7 +1081,7 @@
   <dimension ref="B3:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1654,7 @@
         <v>100</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -1668,7 +1668,7 @@
         <v>101</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G40" s="5"/>
     </row>
